--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.021020-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.021020-1.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3163,12 +3163,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3835,12 +3835,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3877,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6287,12 +6287,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7467,12 +7467,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7719,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7929,12 +7929,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8265,12 +8265,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9063,12 +9063,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9609,12 +9609,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9735,12 +9735,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10239,12 +10239,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10365,12 +10365,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11377,12 +11377,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12603,12 +12603,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13233,12 +13233,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14283,12 +14283,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14913,12 +14913,12 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15039,12 +15039,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15081,12 +15081,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15333,12 +15333,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15375,12 +15375,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
